--- a/biology/Botanique/Sagina/Sagina.xlsx
+++ b/biology/Botanique/Sagina/Sagina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sagina (les Sagines), est un genre de plantes à fleurs de la famille des Caryophyllaceae ; il compte entre vingt et trente espèces.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre vient du latin sagina, « plante nourrissante », en référence à la tradition qui associe la plante à l'engraissement du bétail consommant certaines sagines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre vient du latin sagina, « plante nourrissante », en référence à la tradition qui associe la plante à l'engraissement du bétail consommant certaines sagines.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sagines sont originaires des zones tempérées de l'hémisphère nord et se rencontrent aussi dans les régions tropicales situées à haute altitude.
 </t>
@@ -573,7 +589,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sagines sont des espèces herbacées pérennes ou annuelles, dressées ou couchées et entre cinq et quinze centimètres de longueur. Les feuilles sont opposées et mesurent entre cinq et vingt millimètres de longueur. Les fleurs sont solitaires ou groupées en petites inflorescences et produisent des fruits qui contiennent quelques graines chacun.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (19 mars 2016)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (19 mars 2016) :
 Sagina apetala Ard.
 Sagina caespitosa (J. Vahl) Lange
 Sagina decumbens (Ell.) Torr. &amp; Gray
